--- a/similarities/split_global/harmonic_similarity_timestamps_39.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A#:maj', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:38.940000', '0:00:49')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:01:02', '0:01:07.100000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=38.94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=62.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:40.260000', '0:01:46.300000'), ('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:24.960000', '0:01:31.380000'), ('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=100.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:02:08.760000', '0:02:13.560000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>['D:min', 'G:7', 'C:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
+          <t>['C:min', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:01.840000')]</t>
+          <t>('0:01:03.100000', '0:01:07.680000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988')]</t>
+          <t>('0:01:37.390000', '0:01:40.090000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-24#t=63.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=97.39</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:43.610000', '0:00:49.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:00:11.510000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:02:09.380000', '0:02:15.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:02:02.780000', '0:02:21.245000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:01:01.052063', '0:01:13.416689')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:01:12.400000', '0:01:15.480000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=61.052063</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=72.4</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:04:21.680000', '0:04:29.360000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:20.740000', '0:00:23.800000')]</t>
+          <t>('0:01:04.120000', '0:01:11.780000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=261.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=64.12</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=112.24']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:05.360000')]</t>
+          <t>('0:01:14.700000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:00:16.440000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=16.44</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:12.640000', '0:01:29.520000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:07.590000', '0:00:15.800000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>isophonics_265</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.510000', '0:00:17.230000')]</t>
+          <t>('0:00:30.060000', '0:00:43.780000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:50.130000', '0:02:18.500000')]</t>
+          <t>('0:01:40.740000', '0:02:01.400000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=30.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=110.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=100.74</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
